--- a/extab.xlsx
+++ b/extab.xlsx
@@ -88,28 +88,28 @@
     <t>CNY</t>
   </si>
   <si>
-    <t>30.29</t>
+    <t>30.285</t>
   </si>
   <si>
     <t>3.746</t>
   </si>
   <si>
-    <t>38.29</t>
-  </si>
-  <si>
-    <t>22.15</t>
-  </si>
-  <si>
-    <t>23.26</t>
-  </si>
-  <si>
-    <t>21.92</t>
-  </si>
-  <si>
-    <t>30.61</t>
-  </si>
-  <si>
-    <t>0.2668</t>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>22.16</t>
+  </si>
+  <si>
+    <t>23.29</t>
+  </si>
+  <si>
+    <t>21.93</t>
+  </si>
+  <si>
+    <t>30.62</t>
+  </si>
+  <si>
+    <t>0.2667</t>
   </si>
   <si>
     <t>-</t>
@@ -121,52 +121,52 @@
     <t>20.13</t>
   </si>
   <si>
-    <t>0.8162</t>
-  </si>
-  <si>
-    <t>0.5016</t>
+    <t>0.8174</t>
+  </si>
+  <si>
+    <t>0.5015</t>
   </si>
   <si>
     <t>0.00178</t>
   </si>
   <si>
-    <t>35.07</t>
-  </si>
-  <si>
-    <t>0.02593</t>
-  </si>
-  <si>
-    <t>0.00095</t>
-  </si>
-  <si>
-    <t>6.394</t>
-  </si>
-  <si>
-    <t>4.412</t>
-  </si>
-  <si>
-    <t>30.98</t>
+    <t>35.09</t>
+  </si>
+  <si>
+    <t>0.02595</t>
+  </si>
+  <si>
+    <t>0.00094</t>
+  </si>
+  <si>
+    <t>6.393</t>
+  </si>
+  <si>
+    <t>4.411</t>
+  </si>
+  <si>
+    <t>30.975</t>
   </si>
   <si>
     <t>3.962</t>
   </si>
   <si>
-    <t>40.41</t>
-  </si>
-  <si>
-    <t>22.93</t>
-  </si>
-  <si>
-    <t>24.17</t>
-  </si>
-  <si>
-    <t>22.83</t>
-  </si>
-  <si>
-    <t>31.81</t>
-  </si>
-  <si>
-    <t>0.2796</t>
+    <t>40.42</t>
+  </si>
+  <si>
+    <t>22.94</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>22.84</t>
+  </si>
+  <si>
+    <t>31.82</t>
+  </si>
+  <si>
+    <t>0.2795</t>
   </si>
   <si>
     <t>3.5</t>
@@ -175,52 +175,52 @@
     <t>20.98</t>
   </si>
   <si>
-    <t>1.0042</t>
-  </si>
-  <si>
-    <t>0.6346</t>
+    <t>1.0054</t>
+  </si>
+  <si>
+    <t>0.6345</t>
   </si>
   <si>
     <t>0.00248</t>
   </si>
   <si>
-    <t>36.41</t>
-  </si>
-  <si>
-    <t>0.02983</t>
-  </si>
-  <si>
-    <t>0.00145</t>
-  </si>
-  <si>
-    <t>8.024</t>
-  </si>
-  <si>
-    <t>4.574</t>
-  </si>
-  <si>
-    <t>30.66</t>
+    <t>36.43</t>
+  </si>
+  <si>
+    <t>0.02985</t>
+  </si>
+  <si>
+    <t>0.00144</t>
+  </si>
+  <si>
+    <t>8.023</t>
+  </si>
+  <si>
+    <t>4.573</t>
+  </si>
+  <si>
+    <t>30.655</t>
   </si>
   <si>
     <t>3.882</t>
   </si>
   <si>
-    <t>39.29</t>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>22.43</t>
+  </si>
+  <si>
+    <t>23.68</t>
   </si>
   <si>
     <t>22.42</t>
   </si>
   <si>
-    <t>23.65</t>
-  </si>
-  <si>
-    <t>22.41</t>
-  </si>
-  <si>
-    <t>31.27</t>
-  </si>
-  <si>
-    <t>0.2741</t>
+    <t>31.28</t>
+  </si>
+  <si>
+    <t>0.274</t>
   </si>
   <si>
     <t>2.11</t>
@@ -232,37 +232,37 @@
     <t>20.51</t>
   </si>
   <si>
-    <t>0.9248</t>
-  </si>
-  <si>
-    <t>35.69</t>
-  </si>
-  <si>
-    <t>4.484</t>
-  </si>
-  <si>
-    <t>30.76</t>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>35.71</t>
+  </si>
+  <si>
+    <t>4.483</t>
+  </si>
+  <si>
+    <t>30.755</t>
   </si>
   <si>
     <t>3.942</t>
   </si>
   <si>
-    <t>39.71</t>
-  </si>
-  <si>
-    <t>22.65</t>
-  </si>
-  <si>
-    <t>23.87</t>
-  </si>
-  <si>
-    <t>22.59</t>
-  </si>
-  <si>
-    <t>31.56</t>
-  </si>
-  <si>
-    <t>0.2781</t>
+    <t>39.72</t>
+  </si>
+  <si>
+    <t>22.66</t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>31.57</t>
+  </si>
+  <si>
+    <t>0.278</t>
   </si>
   <si>
     <t>2.19</t>
@@ -274,13 +274,13 @@
     <t>20.71</t>
   </si>
   <si>
-    <t>0.9648</t>
-  </si>
-  <si>
-    <t>36.09</t>
-  </si>
-  <si>
-    <t>4.534</t>
+    <t>0.966</t>
+  </si>
+  <si>
+    <t>36.11</t>
+  </si>
+  <si>
+    <t>4.533</t>
   </si>
 </sst>
 </file>
